--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tf_nira\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nira-registration\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838B77D5-64F3-4724-B54A-59B312E97247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F94682-2325-4710-BCCC-954FE79E9E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -4278,9 +4278,6 @@
 5) The operator will collect and upload your signature.
 6) The operator will capture your biometrics including face, fingerprints and iris.
 7) The operator will submit your application for further processing.  </t>
-  </si>
-  <si>
-    <t>Dear $!surname $!givenName your Pre-Registration for NIN is Completed Successfully on $date at $time. Your ID is $!PRID.</t>
   </si>
   <si>
     <t>&lt;!DOCTYPE html&gt; &lt;html&gt; &lt;head&gt; &lt;meta charset="utf-8"&gt; &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt; &lt;title&gt;UIN Card&lt;/title&gt; &lt;style&gt; .main-table { margin-left: 60px;; width: 600px; height: 350px; border: 1px solid black; } .cir { display: inline-block; border-radius: 60px; box-shadow: 0px 0px 2px #000000; padding: 0.5em 0.6em; } .name-head-color { color: black; } .head-title { margin-left: -85px; } .bar-code-padding { margin-top: 20px; margin-left: 20px; } .top-buffer { margin-left:10px; } &lt;/style&gt; &lt;/head&gt; &lt;body&gt; &lt;table class="main-table"&gt; &lt;tr&gt; &lt;td&gt;&amp;nbsp; &lt;div class="cir"&gt;&lt;font size="1"&gt;Logo&lt;/font&gt;&lt;/div&gt; &lt;/td&gt; &lt;td&gt;&lt;label class="name-head-color"&gt;&lt;font size="5"class=" head-title"&gt; &amp;nbsp;&amp;nbsp; Kingdom of MyCountry &amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/font&gt; &lt;/label&gt;&lt;/td&gt; &lt;td rowspan="4"&gt; &lt;div&gt; &lt;div style="border: solid black 1px; height: 150px; width: 120px;"&gt; #if($isPhotoSet)&lt;img src = $!ApplicantPhoto style="width: 120px; height: 150px"&gt; #end  &lt;/div&gt; &lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td rowspan="1"&gt; &lt;div class="block top-buffer"&gt; &lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!UIN &lt;/span&gt; &lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td rowspan="1"&gt; &lt;div class="block top-buffer"&gt; &lt;label class="name-head-color"&gt;&lt;b&gt;Name&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!fullName_eng&lt;/span&gt; &lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td rowspan="1"&gt; &lt;div class="block top-buffer"&gt; &lt;label class="name-head-color"&gt;&lt;b&gt;Ø§Ø³Ù…&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!fullName_ara&lt;/span&gt; &lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td rowspan="1"&gt; &lt;div class="block top-buffer"&gt; &lt;label class="name-head-color"&gt;&lt;b&gt;DOB/ØªØ§Ø±ÙŠØ®&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!dateOfBirth&lt;/span&gt; &lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td colspan="2"&gt; &lt;div class="block top-buffer"&gt; &lt;label class="name-head-color"&gt;&lt;b&gt;Gender&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_eng&lt;/span&gt; &amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;Ø¬Ù†Ø³&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_ara&lt;/span&gt; &lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt; &lt;div class="col-md-2 top-buffer"&gt; &lt;div class="block top-buffer"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Address&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;/td&gt; &lt;td&gt;&lt;span&gt;$!addressLine1_eng, $!addressLine2_eng, $!addressLine3_eng, $!region_eng, $!province_eng, $!city_eng, $!postalCode &lt;/span&gt;&lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Ø¹Ù†ÙˆØ§Ù†&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;/td&gt; &lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara, $!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara, $!postalCode &lt;/span&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;div&gt;&amp;nbsp;&lt;/div&gt; &lt;table class="main-table" style="height: 300px"&gt; &lt;tr&gt; &lt;td&gt; &lt;div style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt; &lt;div class="col-md-6"&gt; &lt;div class="bar-code-padding"&gt;&lt;/div&gt; &lt;img src=$!QrCode style="width: 250px; height: 250px; margin-top: -20px"&gt; &lt;/div&gt; &lt;/div&gt; &lt;/td&gt; &lt;td&gt; &lt;div class="name-head-color col-md-6"&gt; &lt;br&gt; For any issues please contact us at&lt;br&gt; &lt;br&gt; Registration Proccessor,Hanging Gardens,Global Village Tech Park, Mysore Rd,RVCE,Bengaluru, Karnataka 560059&lt;br&gt; &lt;br&gt; Ù„Ø£ÙŠØ© Ù…Ø´Ø§ÙƒÙ„ ÙŠØ±Ø¬Ù‰ Ø§Ù„Ø§ØªØµØ§Ù„ Ø¨Ù†Ø§ Ø¹Ù„Ù‰ &lt;br&gt;Ø§Ù„ØªØ³Ø¬ÙŠÙ„ Ø§Ù„Ù…Ø¹Ø§Ù„Ø¬ØŒ Ø§Ù„Ø­Ø¯Ø§Ø¦Ù‚ Ø§Ù„Ù…Ø¹Ù„Ù‚Ø© ØŒ Ø§Ù„Ù‚Ø±ÙŠØ© Ø§Ù„Ø¹Ø§Ù„Ù…ÙŠØ© Tech Park, Mysore Rd,RVCE 560059 Ø¨Ù†ØºØ§Ù„ÙˆØ±ÙˆØŒ ÙƒØ§Ø±Ù†Ø§ØªØ§ÙƒØ§ &lt;br&gt; &lt;br&gt; &lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/body&gt; &lt;/html&gt;</t>
@@ -7506,18 +7503,28 @@
 &lt;/body&gt;
 &lt;/html&gt;</t>
   </si>
+  <si>
+    <t>Dear $name your Pre-Registration for NIN is Completed Successfully on $Date at $Time. Your ID is $!PRID.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -7544,7 +7551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7557,6 +7564,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7863,8 +7871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1809"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C147" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7875,40 +7883,41 @@
     <col min="6" max="6" width="56.28515625" customWidth="1"/>
     <col min="8" max="8" width="30.140625" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7928,7 +7937,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>826</v>
       </c>
       <c r="G2">
@@ -7944,7 +7953,7 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7979,7 +7988,7 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8014,7 +8023,7 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8049,7 +8058,7 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -8084,7 +8093,7 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -8119,7 +8128,7 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -8154,7 +8163,7 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8189,7 +8198,7 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -8224,7 +8233,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -8259,7 +8268,7 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -8294,7 +8303,7 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -8329,7 +8338,7 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8364,7 +8373,7 @@
         <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8399,7 +8408,7 @@
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8434,7 +8443,7 @@
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -8469,7 +8478,7 @@
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -8504,7 +8513,7 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -8539,7 +8548,7 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -8574,7 +8583,7 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -8609,7 +8618,7 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -8644,7 +8653,7 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -8679,7 +8688,7 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="225" x14ac:dyDescent="0.25">
@@ -8714,7 +8723,7 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -8749,7 +8758,7 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -8784,7 +8793,7 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -8819,7 +8828,7 @@
         <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -8838,8 +8847,8 @@
       <c r="E28" t="s">
         <v>13</v>
       </c>
-      <c r="F28" t="s">
-        <v>860</v>
+      <c r="F28" s="5" t="s">
+        <v>954</v>
       </c>
       <c r="G28">
         <v>10001</v>
@@ -8854,7 +8863,7 @@
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -8889,7 +8898,7 @@
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -8909,7 +8918,7 @@
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G30">
         <v>10003</v>
@@ -8924,7 +8933,7 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -8959,7 +8968,7 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -8994,7 +9003,7 @@
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -9029,7 +9038,7 @@
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -9064,7 +9073,7 @@
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -9099,7 +9108,7 @@
         <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -9134,7 +9143,7 @@
         <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -9169,7 +9178,7 @@
         <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -9204,7 +9213,7 @@
         <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -9239,7 +9248,7 @@
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -9274,7 +9283,7 @@
         <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -9309,7 +9318,7 @@
         <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -9344,7 +9353,7 @@
         <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -9379,7 +9388,7 @@
         <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -9414,7 +9423,7 @@
         <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -9449,7 +9458,7 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -9484,7 +9493,7 @@
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -9519,7 +9528,7 @@
         <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -9554,7 +9563,7 @@
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -9574,7 +9583,7 @@
         <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G49">
         <v>10001</v>
@@ -9589,7 +9598,7 @@
         <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -9624,7 +9633,7 @@
         <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -9659,7 +9668,7 @@
         <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -9694,7 +9703,7 @@
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -9729,7 +9738,7 @@
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -9749,7 +9758,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G54">
         <v>10001</v>
@@ -9764,7 +9773,7 @@
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -9784,7 +9793,7 @@
         <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G55">
         <v>10003</v>
@@ -9799,7 +9808,7 @@
         <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -9834,7 +9843,7 @@
         <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -9854,7 +9863,7 @@
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G57">
         <v>10003</v>
@@ -9869,7 +9878,7 @@
         <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -9889,7 +9898,7 @@
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G58">
         <v>10006</v>
@@ -9904,7 +9913,7 @@
         <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -9924,7 +9933,7 @@
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G59">
         <v>10006</v>
@@ -9939,7 +9948,7 @@
         <v>17</v>
       </c>
       <c r="K59" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -9974,7 +9983,7 @@
         <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -9994,7 +10003,7 @@
         <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G61">
         <v>10006</v>
@@ -10009,7 +10018,7 @@
         <v>17</v>
       </c>
       <c r="K61" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -10044,7 +10053,7 @@
         <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -10064,7 +10073,7 @@
         <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G63">
         <v>10006</v>
@@ -10079,7 +10088,7 @@
         <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -10099,7 +10108,7 @@
         <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G64">
         <v>10006</v>
@@ -10114,7 +10123,7 @@
         <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -10149,7 +10158,7 @@
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -10169,7 +10178,7 @@
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G66">
         <v>10006</v>
@@ -10184,7 +10193,7 @@
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -10204,7 +10213,7 @@
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G67">
         <v>10006</v>
@@ -10219,7 +10228,7 @@
         <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -10254,7 +10263,7 @@
         <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -10274,7 +10283,7 @@
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G69">
         <v>10006</v>
@@ -10289,7 +10298,7 @@
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -10309,7 +10318,7 @@
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G70">
         <v>10006</v>
@@ -10324,7 +10333,7 @@
         <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -10359,7 +10368,7 @@
         <v>17</v>
       </c>
       <c r="K71" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -10379,7 +10388,7 @@
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G72">
         <v>10006</v>
@@ -10394,7 +10403,7 @@
         <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -10414,7 +10423,7 @@
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G73">
         <v>10006</v>
@@ -10429,7 +10438,7 @@
         <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -10464,7 +10473,7 @@
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -10484,7 +10493,7 @@
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G75">
         <v>10006</v>
@@ -10499,7 +10508,7 @@
         <v>17</v>
       </c>
       <c r="K75" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -10519,7 +10528,7 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G76">
         <v>10006</v>
@@ -10534,7 +10543,7 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -10569,7 +10578,7 @@
         <v>17</v>
       </c>
       <c r="K77" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -10589,7 +10598,7 @@
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G78">
         <v>10006</v>
@@ -10604,7 +10613,7 @@
         <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -10624,7 +10633,7 @@
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G79">
         <v>10006</v>
@@ -10639,7 +10648,7 @@
         <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -10674,7 +10683,7 @@
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -10694,7 +10703,7 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G81">
         <v>10006</v>
@@ -10709,7 +10718,7 @@
         <v>17</v>
       </c>
       <c r="K81" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -10729,7 +10738,7 @@
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G82">
         <v>10006</v>
@@ -10744,7 +10753,7 @@
         <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -10779,7 +10788,7 @@
         <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -10799,7 +10808,7 @@
         <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G84">
         <v>10006</v>
@@ -10814,7 +10823,7 @@
         <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -10834,7 +10843,7 @@
         <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G85">
         <v>10006</v>
@@ -10849,7 +10858,7 @@
         <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -10884,7 +10893,7 @@
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -10904,7 +10913,7 @@
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G87">
         <v>10006</v>
@@ -10919,7 +10928,7 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -10939,7 +10948,7 @@
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G88">
         <v>10006</v>
@@ -10954,7 +10963,7 @@
         <v>17</v>
       </c>
       <c r="K88" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -10989,7 +10998,7 @@
         <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -11009,7 +11018,7 @@
         <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G90">
         <v>10006</v>
@@ -11024,7 +11033,7 @@
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -11044,7 +11053,7 @@
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G91">
         <v>10006</v>
@@ -11059,7 +11068,7 @@
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -11094,7 +11103,7 @@
         <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -11114,7 +11123,7 @@
         <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G93">
         <v>10006</v>
@@ -11129,7 +11138,7 @@
         <v>17</v>
       </c>
       <c r="K93" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11149,7 +11158,7 @@
         <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G94">
         <v>10006</v>
@@ -11164,7 +11173,7 @@
         <v>17</v>
       </c>
       <c r="K94" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -11199,7 +11208,7 @@
         <v>17</v>
       </c>
       <c r="K95" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -11219,7 +11228,7 @@
         <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G96">
         <v>10006</v>
@@ -11234,7 +11243,7 @@
         <v>17</v>
       </c>
       <c r="K96" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -11254,7 +11263,7 @@
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G97">
         <v>10006</v>
@@ -11269,7 +11278,7 @@
         <v>17</v>
       </c>
       <c r="K97" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -11304,7 +11313,7 @@
         <v>17</v>
       </c>
       <c r="K98" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -11324,7 +11333,7 @@
         <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G99">
         <v>10006</v>
@@ -11339,7 +11348,7 @@
         <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -11359,7 +11368,7 @@
         <v>13</v>
       </c>
       <c r="F100" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G100">
         <v>10006</v>
@@ -11374,7 +11383,7 @@
         <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -11409,7 +11418,7 @@
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -11429,7 +11438,7 @@
         <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G102">
         <v>10006</v>
@@ -11444,7 +11453,7 @@
         <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -11464,7 +11473,7 @@
         <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G103">
         <v>10006</v>
@@ -11479,7 +11488,7 @@
         <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -11514,7 +11523,7 @@
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -11534,7 +11543,7 @@
         <v>13</v>
       </c>
       <c r="F105" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G105">
         <v>10006</v>
@@ -11549,7 +11558,7 @@
         <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -11569,7 +11578,7 @@
         <v>13</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G106">
         <v>10003</v>
@@ -11584,7 +11593,7 @@
         <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -11604,7 +11613,7 @@
         <v>13</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G107">
         <v>10003</v>
@@ -11619,7 +11628,7 @@
         <v>17</v>
       </c>
       <c r="K107" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -11639,7 +11648,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G108">
         <v>10003</v>
@@ -11654,7 +11663,7 @@
         <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -11674,7 +11683,7 @@
         <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G109">
         <v>10003</v>
@@ -11689,7 +11698,7 @@
         <v>17</v>
       </c>
       <c r="K109" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -11709,7 +11718,7 @@
         <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G110">
         <v>10003</v>
@@ -11724,7 +11733,7 @@
         <v>17</v>
       </c>
       <c r="K110" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -11744,7 +11753,7 @@
         <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G111">
         <v>10003</v>
@@ -11759,7 +11768,7 @@
         <v>17</v>
       </c>
       <c r="K111" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -11779,7 +11788,7 @@
         <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G112">
         <v>10003</v>
@@ -11794,7 +11803,7 @@
         <v>17</v>
       </c>
       <c r="K112" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -11814,7 +11823,7 @@
         <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G113">
         <v>10003</v>
@@ -11829,7 +11838,7 @@
         <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -11849,7 +11858,7 @@
         <v>13</v>
       </c>
       <c r="F114" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G114">
         <v>10003</v>
@@ -11864,7 +11873,7 @@
         <v>17</v>
       </c>
       <c r="K114" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -11884,7 +11893,7 @@
         <v>13</v>
       </c>
       <c r="F115" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G115">
         <v>10003</v>
@@ -11899,7 +11908,7 @@
         <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -11919,7 +11928,7 @@
         <v>13</v>
       </c>
       <c r="F116" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G116">
         <v>10003</v>
@@ -11934,7 +11943,7 @@
         <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -11954,7 +11963,7 @@
         <v>13</v>
       </c>
       <c r="F117" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G117">
         <v>10003</v>
@@ -11969,7 +11978,7 @@
         <v>17</v>
       </c>
       <c r="K117" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -11989,7 +11998,7 @@
         <v>13</v>
       </c>
       <c r="F118" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G118">
         <v>10003</v>
@@ -12004,7 +12013,7 @@
         <v>17</v>
       </c>
       <c r="K118" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -12024,7 +12033,7 @@
         <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G119">
         <v>10003</v>
@@ -12039,7 +12048,7 @@
         <v>17</v>
       </c>
       <c r="K119" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -12074,7 +12083,7 @@
         <v>17</v>
       </c>
       <c r="K120" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -12109,7 +12118,7 @@
         <v>17</v>
       </c>
       <c r="K121" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -12144,7 +12153,7 @@
         <v>17</v>
       </c>
       <c r="K122" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -12179,7 +12188,7 @@
         <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -12214,7 +12223,7 @@
         <v>17</v>
       </c>
       <c r="K124" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -12249,7 +12258,7 @@
         <v>17</v>
       </c>
       <c r="K125" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -12284,7 +12293,7 @@
         <v>17</v>
       </c>
       <c r="K126" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -12304,7 +12313,7 @@
         <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G127">
         <v>10006</v>
@@ -12319,7 +12328,7 @@
         <v>17</v>
       </c>
       <c r="K127" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -12339,7 +12348,7 @@
         <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G128">
         <v>10006</v>
@@ -12354,7 +12363,7 @@
         <v>17</v>
       </c>
       <c r="K128" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -12389,7 +12398,7 @@
         <v>17</v>
       </c>
       <c r="K129" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -12409,7 +12418,7 @@
         <v>13</v>
       </c>
       <c r="F130" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G130">
         <v>10006</v>
@@ -12424,7 +12433,7 @@
         <v>17</v>
       </c>
       <c r="K130" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -12444,7 +12453,7 @@
         <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G131">
         <v>10006</v>
@@ -12459,7 +12468,7 @@
         <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -12494,7 +12503,7 @@
         <v>17</v>
       </c>
       <c r="K132" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -12514,7 +12523,7 @@
         <v>13</v>
       </c>
       <c r="F133" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G133">
         <v>10006</v>
@@ -12529,7 +12538,7 @@
         <v>17</v>
       </c>
       <c r="K133" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -12549,7 +12558,7 @@
         <v>13</v>
       </c>
       <c r="F134" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G134">
         <v>10006</v>
@@ -12564,7 +12573,7 @@
         <v>17</v>
       </c>
       <c r="K134" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -12599,7 +12608,7 @@
         <v>17</v>
       </c>
       <c r="K135" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -12619,7 +12628,7 @@
         <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G136">
         <v>10006</v>
@@ -12634,7 +12643,7 @@
         <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -12654,7 +12663,7 @@
         <v>13</v>
       </c>
       <c r="F137" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G137">
         <v>10006</v>
@@ -12669,7 +12678,7 @@
         <v>17</v>
       </c>
       <c r="K137" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -12704,7 +12713,7 @@
         <v>17</v>
       </c>
       <c r="K138" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="225" x14ac:dyDescent="0.25">
@@ -12739,7 +12748,7 @@
         <v>17</v>
       </c>
       <c r="K139" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12774,7 +12783,7 @@
         <v>17</v>
       </c>
       <c r="K140" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -12809,7 +12818,7 @@
         <v>17</v>
       </c>
       <c r="K141" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -12844,7 +12853,7 @@
         <v>17</v>
       </c>
       <c r="K142" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -12879,7 +12888,7 @@
         <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -12899,7 +12908,7 @@
         <v>13</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G144">
         <v>10002</v>
@@ -12914,7 +12923,7 @@
         <v>17</v>
       </c>
       <c r="K144" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -12934,7 +12943,7 @@
         <v>13</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G145">
         <v>10006</v>
@@ -12949,7 +12958,7 @@
         <v>17</v>
       </c>
       <c r="K145" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -12969,7 +12978,7 @@
         <v>13</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G146">
         <v>10006</v>
@@ -12984,7 +12993,7 @@
         <v>17</v>
       </c>
       <c r="K146" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -13004,7 +13013,7 @@
         <v>13</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G147">
         <v>10002</v>
@@ -13019,7 +13028,7 @@
         <v>17</v>
       </c>
       <c r="K147" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -13054,7 +13063,7 @@
         <v>17</v>
       </c>
       <c r="K148" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -13089,7 +13098,7 @@
         <v>17</v>
       </c>
       <c r="K149" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -13109,7 +13118,7 @@
         <v>13</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G150">
         <v>10006</v>
@@ -13124,7 +13133,7 @@
         <v>17</v>
       </c>
       <c r="K150" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -13144,7 +13153,7 @@
         <v>13</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G151">
         <v>10006</v>
@@ -13159,7 +13168,7 @@
         <v>17</v>
       </c>
       <c r="K151" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -13179,7 +13188,7 @@
         <v>13</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G152">
         <v>10006</v>
@@ -13194,7 +13203,7 @@
         <v>17</v>
       </c>
       <c r="K152" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -13229,7 +13238,7 @@
         <v>17</v>
       </c>
       <c r="K153" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -13264,7 +13273,7 @@
         <v>17</v>
       </c>
       <c r="K154" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -13299,7 +13308,7 @@
         <v>17</v>
       </c>
       <c r="K155" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -13319,7 +13328,7 @@
         <v>13</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G156">
         <v>10006</v>
@@ -13334,7 +13343,7 @@
         <v>17</v>
       </c>
       <c r="K156" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -13369,7 +13378,7 @@
         <v>17</v>
       </c>
       <c r="K157" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -13404,7 +13413,7 @@
         <v>17</v>
       </c>
       <c r="K158" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -13439,7 +13448,7 @@
         <v>17</v>
       </c>
       <c r="K159" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -13474,7 +13483,7 @@
         <v>17</v>
       </c>
       <c r="K160" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -13509,7 +13518,7 @@
         <v>17</v>
       </c>
       <c r="K161" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -13544,7 +13553,7 @@
         <v>17</v>
       </c>
       <c r="K162" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -13564,7 +13573,7 @@
         <v>13</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G163">
         <v>10002</v>
@@ -13579,7 +13588,7 @@
         <v>17</v>
       </c>
       <c r="K163" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -13599,7 +13608,7 @@
         <v>13</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G164">
         <v>10006</v>
@@ -13614,7 +13623,7 @@
         <v>17</v>
       </c>
       <c r="K164" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -13649,7 +13658,7 @@
         <v>17</v>
       </c>
       <c r="K165" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -13669,7 +13678,7 @@
         <v>13</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G166">
         <v>10003</v>
@@ -13684,7 +13693,7 @@
         <v>17</v>
       </c>
       <c r="K166" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -13704,7 +13713,7 @@
         <v>13</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G167">
         <v>10003</v>
@@ -13719,7 +13728,7 @@
         <v>17</v>
       </c>
       <c r="K167" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -13754,7 +13763,7 @@
         <v>17</v>
       </c>
       <c r="K168" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -13789,7 +13798,7 @@
         <v>17</v>
       </c>
       <c r="K169" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -13824,7 +13833,7 @@
         <v>17</v>
       </c>
       <c r="K170" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -13859,7 +13868,7 @@
         <v>17</v>
       </c>
       <c r="K171" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -13894,7 +13903,7 @@
         <v>17</v>
       </c>
       <c r="K172" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -13929,7 +13938,7 @@
         <v>17</v>
       </c>
       <c r="K173" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -13964,7 +13973,7 @@
         <v>17</v>
       </c>
       <c r="K174" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -13999,7 +14008,7 @@
         <v>17</v>
       </c>
       <c r="K175" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -14034,7 +14043,7 @@
         <v>17</v>
       </c>
       <c r="K176" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -14069,7 +14078,7 @@
         <v>17</v>
       </c>
       <c r="K177" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14089,7 +14098,7 @@
         <v>13</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G178">
         <v>10006</v>
@@ -14104,7 +14113,7 @@
         <v>17</v>
       </c>
       <c r="K178" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14124,7 +14133,7 @@
         <v>13</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G179">
         <v>10006</v>
@@ -14139,7 +14148,7 @@
         <v>17</v>
       </c>
       <c r="K179" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14159,7 +14168,7 @@
         <v>13</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G180">
         <v>10006</v>
@@ -14174,7 +14183,7 @@
         <v>17</v>
       </c>
       <c r="K180" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -14209,7 +14218,7 @@
         <v>17</v>
       </c>
       <c r="K181" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -14244,7 +14253,7 @@
         <v>17</v>
       </c>
       <c r="K182" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -14279,7 +14288,7 @@
         <v>17</v>
       </c>
       <c r="K183" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14299,7 +14308,7 @@
         <v>13</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G184">
         <v>10006</v>
@@ -14314,7 +14323,7 @@
         <v>17</v>
       </c>
       <c r="K184" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14334,7 +14343,7 @@
         <v>13</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G185">
         <v>10006</v>
@@ -14349,7 +14358,7 @@
         <v>17</v>
       </c>
       <c r="K185" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14369,7 +14378,7 @@
         <v>13</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G186">
         <v>10006</v>
@@ -14384,7 +14393,7 @@
         <v>17</v>
       </c>
       <c r="K186" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -14419,7 +14428,7 @@
         <v>17</v>
       </c>
       <c r="K187" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14439,7 +14448,7 @@
         <v>13</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G188">
         <v>10006</v>
@@ -14454,7 +14463,7 @@
         <v>17</v>
       </c>
       <c r="K188" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14474,7 +14483,7 @@
         <v>13</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G189">
         <v>10006</v>
@@ -14489,7 +14498,7 @@
         <v>17</v>
       </c>
       <c r="K189" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14509,7 +14518,7 @@
         <v>13</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G190">
         <v>10006</v>
@@ -14524,7 +14533,7 @@
         <v>17</v>
       </c>
       <c r="K190" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14544,7 +14553,7 @@
         <v>13</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G191">
         <v>10006</v>
@@ -14559,7 +14568,7 @@
         <v>17</v>
       </c>
       <c r="K191" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -14579,7 +14588,7 @@
         <v>13</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G192">
         <v>10006</v>
@@ -14594,7 +14603,7 @@
         <v>17</v>
       </c>
       <c r="K192" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14614,7 +14623,7 @@
         <v>13</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G193">
         <v>10006</v>
@@ -14629,7 +14638,7 @@
         <v>17</v>
       </c>
       <c r="K193" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14649,7 +14658,7 @@
         <v>13</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G194">
         <v>10006</v>
@@ -14664,7 +14673,7 @@
         <v>17</v>
       </c>
       <c r="K194" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14684,7 +14693,7 @@
         <v>13</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G195">
         <v>10006</v>
@@ -14699,7 +14708,7 @@
         <v>17</v>
       </c>
       <c r="K195" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14719,7 +14728,7 @@
         <v>13</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G196">
         <v>10006</v>
@@ -14734,7 +14743,7 @@
         <v>17</v>
       </c>
       <c r="K196" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -14769,7 +14778,7 @@
         <v>17</v>
       </c>
       <c r="K197" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14789,7 +14798,7 @@
         <v>13</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G198">
         <v>10006</v>
@@ -14804,7 +14813,7 @@
         <v>17</v>
       </c>
       <c r="K198" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14824,7 +14833,7 @@
         <v>13</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G199">
         <v>10006</v>
@@ -14839,7 +14848,7 @@
         <v>17</v>
       </c>
       <c r="K199" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14859,7 +14868,7 @@
         <v>13</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G200">
         <v>10006</v>
@@ -14874,7 +14883,7 @@
         <v>17</v>
       </c>
       <c r="K200" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14894,7 +14903,7 @@
         <v>13</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G201">
         <v>10006</v>
@@ -14909,7 +14918,7 @@
         <v>17</v>
       </c>
       <c r="K201" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14929,7 +14938,7 @@
         <v>13</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G202">
         <v>10006</v>
@@ -14944,7 +14953,7 @@
         <v>17</v>
       </c>
       <c r="K202" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14964,7 +14973,7 @@
         <v>13</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G203">
         <v>10006</v>
@@ -14979,7 +14988,7 @@
         <v>17</v>
       </c>
       <c r="K203" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -14999,7 +15008,7 @@
         <v>13</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G204">
         <v>10006</v>
@@ -15014,7 +15023,7 @@
         <v>17</v>
       </c>
       <c r="K204" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -15034,7 +15043,7 @@
         <v>13</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G205">
         <v>10006</v>
@@ -15049,7 +15058,7 @@
         <v>17</v>
       </c>
       <c r="K205" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -15069,7 +15078,7 @@
         <v>13</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G206">
         <v>10006</v>
@@ -15084,7 +15093,7 @@
         <v>17</v>
       </c>
       <c r="K206" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -15104,7 +15113,7 @@
         <v>13</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G207">
         <v>10006</v>
@@ -15119,7 +15128,7 @@
         <v>17</v>
       </c>
       <c r="K207" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -15139,7 +15148,7 @@
         <v>13</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G208">
         <v>10006</v>
@@ -15154,7 +15163,7 @@
         <v>17</v>
       </c>
       <c r="K208" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -15174,7 +15183,7 @@
         <v>13</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G209">
         <v>10006</v>
@@ -15189,7 +15198,7 @@
         <v>17</v>
       </c>
       <c r="K209" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -15209,7 +15218,7 @@
         <v>13</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G210">
         <v>10006</v>
@@ -15224,7 +15233,7 @@
         <v>17</v>
       </c>
       <c r="K210" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -15244,7 +15253,7 @@
         <v>13</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G211">
         <v>10006</v>
@@ -15259,7 +15268,7 @@
         <v>17</v>
       </c>
       <c r="K211" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -15279,7 +15288,7 @@
         <v>13</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G212">
         <v>10006</v>
@@ -15294,7 +15303,7 @@
         <v>17</v>
       </c>
       <c r="K212" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -15329,7 +15338,7 @@
         <v>17</v>
       </c>
       <c r="K213" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15364,7 +15373,7 @@
         <v>17</v>
       </c>
       <c r="K214" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15399,7 +15408,7 @@
         <v>17</v>
       </c>
       <c r="K215" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -15434,7 +15443,7 @@
         <v>17</v>
       </c>
       <c r="K216" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15469,7 +15478,7 @@
         <v>17</v>
       </c>
       <c r="K217" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15504,7 +15513,7 @@
         <v>17</v>
       </c>
       <c r="K218" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -15539,7 +15548,7 @@
         <v>17</v>
       </c>
       <c r="K219" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15574,7 +15583,7 @@
         <v>17</v>
       </c>
       <c r="K220" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15609,7 +15618,7 @@
         <v>17</v>
       </c>
       <c r="K221" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -15644,7 +15653,7 @@
         <v>17</v>
       </c>
       <c r="K222" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15679,7 +15688,7 @@
         <v>17</v>
       </c>
       <c r="K223" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15714,7 +15723,7 @@
         <v>17</v>
       </c>
       <c r="K224" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -15749,7 +15758,7 @@
         <v>17</v>
       </c>
       <c r="K225" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15784,7 +15793,7 @@
         <v>17</v>
       </c>
       <c r="K226" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15819,7 +15828,7 @@
         <v>17</v>
       </c>
       <c r="K227" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -15854,7 +15863,7 @@
         <v>17</v>
       </c>
       <c r="K228" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15889,7 +15898,7 @@
         <v>17</v>
       </c>
       <c r="K229" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15924,7 +15933,7 @@
         <v>17</v>
       </c>
       <c r="K230" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -15959,7 +15968,7 @@
         <v>17</v>
       </c>
       <c r="K231" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -15994,7 +16003,7 @@
         <v>17</v>
       </c>
       <c r="K232" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -16029,7 +16038,7 @@
         <v>17</v>
       </c>
       <c r="K233" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -16064,7 +16073,7 @@
         <v>17</v>
       </c>
       <c r="K234" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -16099,7 +16108,7 @@
         <v>17</v>
       </c>
       <c r="K235" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -16134,7 +16143,7 @@
         <v>17</v>
       </c>
       <c r="K236" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -16169,7 +16178,7 @@
         <v>17</v>
       </c>
       <c r="K237" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -16204,7 +16213,7 @@
         <v>17</v>
       </c>
       <c r="K238" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -16239,7 +16248,7 @@
         <v>17</v>
       </c>
       <c r="K239" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -16274,7 +16283,7 @@
         <v>17</v>
       </c>
       <c r="K240" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -16309,7 +16318,7 @@
         <v>17</v>
       </c>
       <c r="K241" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -16344,7 +16353,7 @@
         <v>17</v>
       </c>
       <c r="K242" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -16379,7 +16388,7 @@
         <v>17</v>
       </c>
       <c r="K243" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -16414,7 +16423,7 @@
         <v>17</v>
       </c>
       <c r="K244" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -16449,7 +16458,7 @@
         <v>17</v>
       </c>
       <c r="K245" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -16484,7 +16493,7 @@
         <v>17</v>
       </c>
       <c r="K246" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -16519,7 +16528,7 @@
         <v>17</v>
       </c>
       <c r="K247" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -16554,7 +16563,7 @@
         <v>17</v>
       </c>
       <c r="K248" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -16589,7 +16598,7 @@
         <v>17</v>
       </c>
       <c r="K249" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -16624,7 +16633,7 @@
         <v>17</v>
       </c>
       <c r="K250" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -16659,7 +16668,7 @@
         <v>17</v>
       </c>
       <c r="K251" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -16694,7 +16703,7 @@
         <v>17</v>
       </c>
       <c r="K252" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -16729,7 +16738,7 @@
         <v>17</v>
       </c>
       <c r="K253" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -16764,7 +16773,7 @@
         <v>17</v>
       </c>
       <c r="K254" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -16799,7 +16808,7 @@
         <v>17</v>
       </c>
       <c r="K255" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -16834,7 +16843,7 @@
         <v>17</v>
       </c>
       <c r="K256" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -16869,7 +16878,7 @@
         <v>17</v>
       </c>
       <c r="K257" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -16904,7 +16913,7 @@
         <v>17</v>
       </c>
       <c r="K258" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -16939,7 +16948,7 @@
         <v>17</v>
       </c>
       <c r="K259" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -16974,7 +16983,7 @@
         <v>17</v>
       </c>
       <c r="K260" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -16994,7 +17003,7 @@
         <v>13</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G261">
         <v>10006</v>
@@ -17009,7 +17018,7 @@
         <v>17</v>
       </c>
       <c r="K261" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -17044,7 +17053,7 @@
         <v>17</v>
       </c>
       <c r="K262" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -17079,7 +17088,7 @@
         <v>17</v>
       </c>
       <c r="K263" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -17099,7 +17108,7 @@
         <v>13</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G264">
         <v>10006</v>
@@ -17114,7 +17123,7 @@
         <v>17</v>
       </c>
       <c r="K264" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -17134,7 +17143,7 @@
         <v>13</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G265">
         <v>10006</v>
@@ -17149,7 +17158,7 @@
         <v>17</v>
       </c>
       <c r="K265" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -17184,7 +17193,7 @@
         <v>17</v>
       </c>
       <c r="K266" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -17219,7 +17228,7 @@
         <v>17</v>
       </c>
       <c r="K267" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -17254,7 +17263,7 @@
         <v>17</v>
       </c>
       <c r="K268" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -17274,7 +17283,7 @@
         <v>13</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G269">
         <v>10006</v>
@@ -17289,7 +17298,7 @@
         <v>17</v>
       </c>
       <c r="K269" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -17309,7 +17318,7 @@
         <v>13</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G270">
         <v>10006</v>
@@ -17324,7 +17333,7 @@
         <v>17</v>
       </c>
       <c r="K270" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -17359,7 +17368,7 @@
         <v>17</v>
       </c>
       <c r="K271" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -17394,7 +17403,7 @@
         <v>17</v>
       </c>
       <c r="K272" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -17414,7 +17423,7 @@
         <v>13</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G273">
         <v>10006</v>
@@ -17429,7 +17438,7 @@
         <v>17</v>
       </c>
       <c r="K273" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -17449,7 +17458,7 @@
         <v>13</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G274">
         <v>10006</v>
@@ -17464,7 +17473,7 @@
         <v>17</v>
       </c>
       <c r="K274" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -17484,7 +17493,7 @@
         <v>13</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G275">
         <v>10006</v>
@@ -17499,7 +17508,7 @@
         <v>17</v>
       </c>
       <c r="K275" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -17534,7 +17543,7 @@
         <v>17</v>
       </c>
       <c r="K276" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -17569,7 +17578,7 @@
         <v>17</v>
       </c>
       <c r="K277" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -17604,7 +17613,7 @@
         <v>17</v>
       </c>
       <c r="K278" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -17624,7 +17633,7 @@
         <v>13</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G279">
         <v>10006</v>
@@ -17639,7 +17648,7 @@
         <v>17</v>
       </c>
       <c r="K279" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -17659,7 +17668,7 @@
         <v>13</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G280">
         <v>10006</v>
@@ -17674,7 +17683,7 @@
         <v>17</v>
       </c>
       <c r="K280" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -17709,7 +17718,7 @@
         <v>17</v>
       </c>
       <c r="K281" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -17744,7 +17753,7 @@
         <v>17</v>
       </c>
       <c r="K282" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -17779,7 +17788,7 @@
         <v>17</v>
       </c>
       <c r="K283" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="284" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -17799,7 +17808,7 @@
         <v>13</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G284">
         <v>10006</v>
@@ -17814,7 +17823,7 @@
         <v>17</v>
       </c>
       <c r="K284" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="285" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -17834,7 +17843,7 @@
         <v>13</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G285">
         <v>10006</v>
@@ -17849,7 +17858,7 @@
         <v>17</v>
       </c>
       <c r="K285" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="286" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -17884,7 +17893,7 @@
         <v>17</v>
       </c>
       <c r="K286" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="287" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -17919,7 +17928,7 @@
         <v>17</v>
       </c>
       <c r="K287" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="288" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -17954,7 +17963,7 @@
         <v>17</v>
       </c>
       <c r="K288" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="289" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -17989,7 +17998,7 @@
         <v>17</v>
       </c>
       <c r="K289" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="290" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -18024,7 +18033,7 @@
         <v>17</v>
       </c>
       <c r="K290" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="291" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -18059,7 +18068,7 @@
         <v>17</v>
       </c>
       <c r="K291" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="292" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -18094,7 +18103,7 @@
         <v>17</v>
       </c>
       <c r="K292" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -18129,7 +18138,7 @@
         <v>17</v>
       </c>
       <c r="K293" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -18149,7 +18158,7 @@
         <v>13</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G294">
         <v>10006</v>
@@ -18164,7 +18173,7 @@
         <v>17</v>
       </c>
       <c r="K294" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
@@ -18199,7 +18208,7 @@
         <v>17</v>
       </c>
       <c r="K295" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="296" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -18234,7 +18243,7 @@
         <v>17</v>
       </c>
       <c r="K296" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -18269,7 +18278,7 @@
         <v>17</v>
       </c>
       <c r="K297" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -18304,7 +18313,7 @@
         <v>17</v>
       </c>
       <c r="K298" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="299" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -18339,7 +18348,7 @@
         <v>17</v>
       </c>
       <c r="K299" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="300" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -18374,7 +18383,7 @@
         <v>17</v>
       </c>
       <c r="K300" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="301" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -18409,7 +18418,7 @@
         <v>17</v>
       </c>
       <c r="K301" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="302" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -18444,7 +18453,7 @@
         <v>17</v>
       </c>
       <c r="K302" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -18479,7 +18488,7 @@
         <v>17</v>
       </c>
       <c r="K303" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
@@ -18514,7 +18523,7 @@
         <v>17</v>
       </c>
       <c r="K304" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -18549,7 +18558,7 @@
         <v>17</v>
       </c>
       <c r="K305" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
@@ -18584,7 +18593,7 @@
         <v>17</v>
       </c>
       <c r="K306" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
@@ -18619,7 +18628,7 @@
         <v>17</v>
       </c>
       <c r="K307" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -18654,7 +18663,7 @@
         <v>17</v>
       </c>
       <c r="K308" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
@@ -18689,7 +18698,7 @@
         <v>17</v>
       </c>
       <c r="K309" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -18724,7 +18733,7 @@
         <v>17</v>
       </c>
       <c r="K310" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
@@ -18759,7 +18768,7 @@
         <v>17</v>
       </c>
       <c r="K311" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -18794,7 +18803,7 @@
         <v>17</v>
       </c>
       <c r="K312" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
@@ -18829,7 +18838,7 @@
         <v>17</v>
       </c>
       <c r="K313" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -18864,7 +18873,7 @@
         <v>17</v>
       </c>
       <c r="K314" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
@@ -18899,7 +18908,7 @@
         <v>17</v>
       </c>
       <c r="K315" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
@@ -18934,7 +18943,7 @@
         <v>17</v>
       </c>
       <c r="K316" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
@@ -18969,7 +18978,7 @@
         <v>17</v>
       </c>
       <c r="K317" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
@@ -19004,7 +19013,7 @@
         <v>17</v>
       </c>
       <c r="K318" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
@@ -19039,7 +19048,7 @@
         <v>17</v>
       </c>
       <c r="K319" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
@@ -19074,7 +19083,7 @@
         <v>17</v>
       </c>
       <c r="K320" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="321" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -19094,7 +19103,7 @@
         <v>13</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G321">
         <v>10006</v>
@@ -19109,7 +19118,7 @@
         <v>17</v>
       </c>
       <c r="K321" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="322" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -19129,7 +19138,7 @@
         <v>13</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G322">
         <v>10006</v>
@@ -19144,7 +19153,7 @@
         <v>17</v>
       </c>
       <c r="K322" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="323" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -19164,7 +19173,7 @@
         <v>13</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G323">
         <v>10006</v>
@@ -19179,7 +19188,7 @@
         <v>17</v>
       </c>
       <c r="K323" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="324" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -19199,7 +19208,7 @@
         <v>13</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G324">
         <v>10006</v>
@@ -19214,7 +19223,7 @@
         <v>17</v>
       </c>
       <c r="K324" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="325" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -19234,7 +19243,7 @@
         <v>13</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G325">
         <v>10006</v>
@@ -19249,7 +19258,7 @@
         <v>17</v>
       </c>
       <c r="K325" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="326" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -19269,7 +19278,7 @@
         <v>13</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G326">
         <v>10006</v>
@@ -19284,7 +19293,7 @@
         <v>17</v>
       </c>
       <c r="K326" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="327" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -19304,7 +19313,7 @@
         <v>13</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G327">
         <v>10003</v>
@@ -19319,7 +19328,7 @@
         <v>17</v>
       </c>
       <c r="K327" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="328" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -19354,7 +19363,7 @@
         <v>17</v>
       </c>
       <c r="K328" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
@@ -19389,7 +19398,7 @@
         <v>17</v>
       </c>
       <c r="K329" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
@@ -19424,7 +19433,7 @@
         <v>17</v>
       </c>
       <c r="K330" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
@@ -19459,7 +19468,7 @@
         <v>17</v>
       </c>
       <c r="K331" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
@@ -19494,7 +19503,7 @@
         <v>17</v>
       </c>
       <c r="K332" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
@@ -19529,7 +19538,7 @@
         <v>17</v>
       </c>
       <c r="K333" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
@@ -19564,7 +19573,7 @@
         <v>17</v>
       </c>
       <c r="K334" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
@@ -19599,7 +19608,7 @@
         <v>17</v>
       </c>
       <c r="K335" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
@@ -19634,7 +19643,7 @@
         <v>17</v>
       </c>
       <c r="K336" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
@@ -19669,7 +19678,7 @@
         <v>17</v>
       </c>
       <c r="K337" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
@@ -19704,7 +19713,7 @@
         <v>17</v>
       </c>
       <c r="K338" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
@@ -19739,7 +19748,7 @@
         <v>17</v>
       </c>
       <c r="K339" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
@@ -19774,7 +19783,7 @@
         <v>17</v>
       </c>
       <c r="K340" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
@@ -19809,7 +19818,7 @@
         <v>17</v>
       </c>
       <c r="K341" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
@@ -19844,7 +19853,7 @@
         <v>17</v>
       </c>
       <c r="K342" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
@@ -19879,7 +19888,7 @@
         <v>17</v>
       </c>
       <c r="K343" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
@@ -19914,7 +19923,7 @@
         <v>17</v>
       </c>
       <c r="K344" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
@@ -19949,7 +19958,7 @@
         <v>17</v>
       </c>
       <c r="K345" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
@@ -19984,7 +19993,7 @@
         <v>17</v>
       </c>
       <c r="K346" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
@@ -20019,7 +20028,7 @@
         <v>17</v>
       </c>
       <c r="K347" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
@@ -20039,7 +20048,7 @@
         <v>13</v>
       </c>
       <c r="F348" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G348">
         <v>10001</v>
@@ -20054,7 +20063,7 @@
         <v>17</v>
       </c>
       <c r="K348" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
@@ -20089,7 +20098,7 @@
         <v>17</v>
       </c>
       <c r="K349" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="350" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -20109,7 +20118,7 @@
         <v>13</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G350">
         <v>10002</v>
@@ -20124,7 +20133,7 @@
         <v>17</v>
       </c>
       <c r="K350" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
@@ -20159,7 +20168,7 @@
         <v>17</v>
       </c>
       <c r="K351" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="352" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -20194,7 +20203,7 @@
         <v>17</v>
       </c>
       <c r="K352" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="353" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -20229,18 +20238,18 @@
         <v>17</v>
       </c>
       <c r="K353" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>907</v>
+      </c>
+      <c r="B354" t="s">
         <v>908</v>
       </c>
-      <c r="B354" t="s">
-        <v>909</v>
-      </c>
       <c r="C354" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D354" t="s">
         <v>12</v>
@@ -20249,7 +20258,7 @@
         <v>13</v>
       </c>
       <c r="F354" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G354">
         <v>10003</v>
@@ -20264,7 +20273,7 @@
         <v>17</v>
       </c>
       <c r="K354" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="355" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -20284,7 +20293,7 @@
         <v>13</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G355">
         <v>10003</v>
@@ -20299,7 +20308,7 @@
         <v>17</v>
       </c>
       <c r="K355" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
@@ -20334,7 +20343,7 @@
         <v>17</v>
       </c>
       <c r="K356" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="357" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -20369,7 +20378,7 @@
         <v>17</v>
       </c>
       <c r="K357" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="358" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -20389,7 +20398,7 @@
         <v>13</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G358">
         <v>10003</v>
@@ -20404,7 +20413,7 @@
         <v>17</v>
       </c>
       <c r="K358" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
@@ -20439,7 +20448,7 @@
         <v>17</v>
       </c>
       <c r="K359" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
@@ -20474,7 +20483,7 @@
         <v>17</v>
       </c>
       <c r="K360" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
@@ -20509,7 +20518,7 @@
         <v>17</v>
       </c>
       <c r="K361" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
@@ -20544,7 +20553,7 @@
         <v>17</v>
       </c>
       <c r="K362" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="363" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -20552,19 +20561,19 @@
         <v>2002</v>
       </c>
       <c r="B363" t="s">
+        <v>912</v>
+      </c>
+      <c r="C363" t="s">
+        <v>912</v>
+      </c>
+      <c r="D363" t="s">
+        <v>12</v>
+      </c>
+      <c r="E363" t="s">
+        <v>13</v>
+      </c>
+      <c r="F363" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="C363" t="s">
-        <v>913</v>
-      </c>
-      <c r="D363" t="s">
-        <v>12</v>
-      </c>
-      <c r="E363" t="s">
-        <v>13</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>914</v>
       </c>
       <c r="G363">
         <v>10003</v>
@@ -20573,13 +20582,13 @@
         <v>31</v>
       </c>
       <c r="I363" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J363" t="s">
         <v>17</v>
       </c>
       <c r="K363" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
@@ -20587,19 +20596,19 @@
         <v>2003</v>
       </c>
       <c r="B364" t="s">
+        <v>915</v>
+      </c>
+      <c r="C364" t="s">
+        <v>915</v>
+      </c>
+      <c r="D364" t="s">
+        <v>12</v>
+      </c>
+      <c r="E364" t="s">
+        <v>13</v>
+      </c>
+      <c r="F364" t="s">
         <v>916</v>
-      </c>
-      <c r="C364" t="s">
-        <v>916</v>
-      </c>
-      <c r="D364" t="s">
-        <v>12</v>
-      </c>
-      <c r="E364" t="s">
-        <v>13</v>
-      </c>
-      <c r="F364" t="s">
-        <v>917</v>
       </c>
       <c r="G364">
         <v>10003</v>
@@ -20608,13 +20617,13 @@
         <v>31</v>
       </c>
       <c r="I364" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J364" t="s">
         <v>17</v>
       </c>
       <c r="K364" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="365" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -20622,10 +20631,10 @@
         <v>2004</v>
       </c>
       <c r="B365" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C365" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D365" t="s">
         <v>12</v>
@@ -20634,7 +20643,7 @@
         <v>13</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G365">
         <v>10003</v>
@@ -20643,13 +20652,13 @@
         <v>31</v>
       </c>
       <c r="I365" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J365" t="s">
         <v>17</v>
       </c>
       <c r="K365" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="366" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -20657,19 +20666,19 @@
         <v>2005</v>
       </c>
       <c r="B366" t="s">
+        <v>920</v>
+      </c>
+      <c r="C366" t="s">
+        <v>920</v>
+      </c>
+      <c r="D366" t="s">
+        <v>12</v>
+      </c>
+      <c r="E366" t="s">
+        <v>13</v>
+      </c>
+      <c r="F366" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="C366" t="s">
-        <v>921</v>
-      </c>
-      <c r="D366" t="s">
-        <v>12</v>
-      </c>
-      <c r="E366" t="s">
-        <v>13</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>922</v>
       </c>
       <c r="G366">
         <v>10003</v>
@@ -20678,13 +20687,13 @@
         <v>31</v>
       </c>
       <c r="I366" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J366" t="s">
         <v>17</v>
       </c>
       <c r="K366" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="367" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -20692,10 +20701,10 @@
         <v>2006</v>
       </c>
       <c r="B367" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C367" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D367" t="s">
         <v>12</v>
@@ -20704,7 +20713,7 @@
         <v>13</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G367">
         <v>10003</v>
@@ -20713,33 +20722,33 @@
         <v>31</v>
       </c>
       <c r="I367" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J367" t="s">
         <v>17</v>
       </c>
       <c r="K367" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="368" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>923</v>
+      </c>
+      <c r="B368" t="s">
         <v>924</v>
       </c>
-      <c r="B368" t="s">
+      <c r="C368" t="s">
+        <v>924</v>
+      </c>
+      <c r="D368" t="s">
+        <v>12</v>
+      </c>
+      <c r="E368" t="s">
+        <v>13</v>
+      </c>
+      <c r="F368" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="C368" t="s">
-        <v>925</v>
-      </c>
-      <c r="D368" t="s">
-        <v>12</v>
-      </c>
-      <c r="E368" t="s">
-        <v>13</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="G368">
         <v>10003</v>
@@ -20748,24 +20757,24 @@
         <v>31</v>
       </c>
       <c r="I368" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J368" t="s">
         <v>17</v>
       </c>
       <c r="K368" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="369" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>929</v>
+      </c>
+      <c r="B369" t="s">
         <v>930</v>
       </c>
-      <c r="B369" t="s">
-        <v>931</v>
-      </c>
       <c r="C369" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D369" t="s">
         <v>12</v>
@@ -20774,7 +20783,7 @@
         <v>13</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G369">
         <v>10003</v>
@@ -20783,24 +20792,24 @@
         <v>31</v>
       </c>
       <c r="I369" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J369" t="s">
         <v>17</v>
       </c>
       <c r="K369" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>932</v>
+      </c>
+      <c r="B370" t="s">
         <v>933</v>
       </c>
-      <c r="B370" t="s">
-        <v>934</v>
-      </c>
       <c r="C370" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D370" t="s">
         <v>12</v>
@@ -20809,7 +20818,7 @@
         <v>13</v>
       </c>
       <c r="F370" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G370">
         <v>10003</v>
@@ -20818,33 +20827,33 @@
         <v>31</v>
       </c>
       <c r="I370" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J370" t="s">
         <v>17</v>
       </c>
       <c r="K370" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="371" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>935</v>
+      </c>
+      <c r="B371" t="s">
         <v>936</v>
       </c>
-      <c r="B371" t="s">
+      <c r="C371" t="s">
+        <v>936</v>
+      </c>
+      <c r="D371" t="s">
+        <v>12</v>
+      </c>
+      <c r="E371" t="s">
+        <v>13</v>
+      </c>
+      <c r="F371" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="C371" t="s">
-        <v>937</v>
-      </c>
-      <c r="D371" t="s">
-        <v>12</v>
-      </c>
-      <c r="E371" t="s">
-        <v>13</v>
-      </c>
-      <c r="F371" s="1" t="s">
-        <v>938</v>
       </c>
       <c r="G371">
         <v>10003</v>
@@ -20853,33 +20862,33 @@
         <v>31</v>
       </c>
       <c r="I371" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J371" t="s">
         <v>17</v>
       </c>
       <c r="K371" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="372" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B372" t="s">
+        <v>939</v>
+      </c>
+      <c r="C372" t="s">
+        <v>939</v>
+      </c>
+      <c r="D372" t="s">
+        <v>12</v>
+      </c>
+      <c r="E372" t="s">
+        <v>13</v>
+      </c>
+      <c r="F372" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="B372" t="s">
-        <v>940</v>
-      </c>
-      <c r="C372" t="s">
-        <v>940</v>
-      </c>
-      <c r="D372" t="s">
-        <v>12</v>
-      </c>
-      <c r="E372" t="s">
-        <v>13</v>
-      </c>
-      <c r="F372" s="1" t="s">
-        <v>942</v>
       </c>
       <c r="G372">
         <v>10003</v>
@@ -20888,33 +20897,33 @@
         <v>31</v>
       </c>
       <c r="I372" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J372" t="s">
         <v>17</v>
       </c>
       <c r="K372" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>944</v>
+      </c>
+      <c r="B373" t="s">
         <v>945</v>
       </c>
-      <c r="B373" t="s">
+      <c r="C373" t="s">
+        <v>945</v>
+      </c>
+      <c r="D373" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>13</v>
+      </c>
+      <c r="F373" t="s">
         <v>946</v>
-      </c>
-      <c r="C373" t="s">
-        <v>946</v>
-      </c>
-      <c r="D373" t="s">
-        <v>12</v>
-      </c>
-      <c r="E373" t="s">
-        <v>13</v>
-      </c>
-      <c r="F373" t="s">
-        <v>947</v>
       </c>
       <c r="G373">
         <v>10003</v>
@@ -20923,33 +20932,33 @@
         <v>31</v>
       </c>
       <c r="I373" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J373" t="s">
         <v>17</v>
       </c>
       <c r="K373" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="374" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>947</v>
+      </c>
+      <c r="B374" t="s">
         <v>948</v>
       </c>
-      <c r="B374" t="s">
+      <c r="C374" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="D374" t="s">
+        <v>12</v>
+      </c>
+      <c r="E374" t="s">
+        <v>13</v>
+      </c>
+      <c r="F374" s="4" t="s">
         <v>950</v>
-      </c>
-      <c r="D374" t="s">
-        <v>12</v>
-      </c>
-      <c r="E374" t="s">
-        <v>13</v>
-      </c>
-      <c r="F374" s="4" t="s">
-        <v>951</v>
       </c>
       <c r="G374">
         <v>10002</v>
@@ -20958,13 +20967,13 @@
         <v>27</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J374" t="s">
         <v>17</v>
       </c>
       <c r="K374" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="622" spans="6:6" x14ac:dyDescent="0.25">
